--- a/regions/2/ganatleba/ganatleba.xlsx
+++ b/regions/2/ganatleba/ganatleba.xlsx
@@ -1,94 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.139\d$\xampp\htdocs\regions\regions\2\ganatleba\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5832B-908B-4D23-BB20-1C0BA2B65AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="სამეგრელო-ზემო სვანეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>განათლება</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>სახელმწიფო</t>
-  </si>
-  <si>
-    <t>კერძო</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა, ერთეული</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
-  </si>
-  <si>
-    <t>კურსდამთავრებულთა რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>მასწავლებლების რიცხოვნობა</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">სკოლებისა და მოსწავლეების რაოდენობა სამეგრელო-ზემო სვანეთის რეგიონში 
 </t>
     </r>
@@ -97,13 +41,111 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(სასწავლო წლის დასაწყისისთვის)</t>
     </r>
   </si>
   <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა, ერთეული</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
+  </si>
+  <si>
+    <t>45 605</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  საქართველოს განათლებისა და მეცნიერების სამინისტრო.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">პროფესიული განათლების მაჩვენებლები სამეგრელო-ზემო სვანეთის რეგიონში 
 </t>
     </r>
@@ -112,13 +154,32 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(ერთეული)</t>
     </r>
   </si>
   <si>
+    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
+  </si>
+  <si>
+    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>მასწავლებლების რიცხოვნობა</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">უმაღლესი საგანმანათლებლო დაწესებულებების რაოდენობა სამეგრელო-ზემო სვანეთის რეგიონში 
 </t>
     </r>
@@ -127,105 +188,86 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(სასწავლო წლის დასაწყისისთვის, ერთეული)</t>
     </r>
   </si>
   <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
-    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  საქართველოს განათლებისა და მეცნიერების სამინისტრო.</t>
-    </r>
+    <t>სახელმწიფო</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>კერძო</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -233,13 +275,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,7 +299,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -271,10 +307,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -282,58 +318,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,122 +680,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="19" width="10.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="18" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="O4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>344</v>
@@ -806,140 +857,157 @@
       <c r="R5" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="S5" s="1">
+        <v>261</v>
+      </c>
+      <c r="T5" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>56646</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>56769</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>53916</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>56186</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>53138</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>50160</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>46599</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>45538</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>44628</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>43703</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>43288</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <v>43293</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="7">
         <v>43496</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="7">
         <v>43684</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="7">
         <v>43840</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="7">
         <v>44691</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="7">
         <v>45608</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="S6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="21">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17">
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1"/>
+    <row r="10" spans="1:20" ht="30" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9">
         <v>2013</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>2014</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="9">
         <v>2015</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <v>2016</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="9">
         <v>2017</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="9">
         <v>2018</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="9">
         <v>2019</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="9">
         <v>2020</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="K11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>12</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="11">
         <v>8</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="12">
         <v>9</v>
       </c>
       <c r="H12" s="1">
@@ -951,9 +1019,15 @@
       <c r="J12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K12" s="1">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="13">
@@ -980,13 +1054,19 @@
       <c r="I13" s="1">
         <v>691</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="13">
         <v>1235</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
+      <c r="K13" s="13">
+        <v>1327</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="13">
         <v>931</v>
@@ -1015,233 +1095,260 @@
       <c r="J14" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="K14" s="1">
+        <v>669</v>
+      </c>
+      <c r="L14" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16">
         <v>162</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="16">
         <v>102</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="17">
         <v>175</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="17">
         <v>191</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <v>160</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="17">
         <v>281</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>284</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>263</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>328</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="K15" s="6">
+        <v>424</v>
+      </c>
+      <c r="L15" s="6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1"/>
+    <row r="18" spans="1:19" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="M19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="L19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-      <c r="P21" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1</v>
+      </c>
+      <c r="S21" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>